--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1226.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1226.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.37815594715232</v>
+        <v>1.200034379959106</v>
       </c>
       <c r="B1">
-        <v>2.825006442080715</v>
+        <v>2.06397008895874</v>
       </c>
       <c r="C1">
-        <v>2.34096749587237</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.795221458888051</v>
+        <v>2.101459980010986</v>
       </c>
       <c r="E1">
-        <v>1.173849406228126</v>
+        <v>1.207412600517273</v>
       </c>
     </row>
   </sheetData>
